--- a/data/TDW.xlsx
+++ b/data/TDW.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>TDW</t>
@@ -30244,7 +30244,7 @@
         <v>5.7823268273E10</v>
       </c>
       <c r="I29" s="25" t="n">
-        <v>6.6926624094E10</v>
+        <v>6.6352989589E10</v>
       </c>
       <c r="K29" s="25" t="n">
         <v>1.4453459393E10</v>
@@ -30337,7 +30337,7 @@
         <v>5.5185326862E10</v>
       </c>
       <c r="AO29" s="25" t="n">
-        <v>6.6926624094E10</v>
+        <v>6.6352989589E10</v>
       </c>
       <c r="AP29" s="25" t="n">
         <v>5.8142531605E10</v>
@@ -31030,7 +31030,7 @@
         <v>3.5278572871E10</v>
       </c>
       <c r="I35" s="25" t="n">
-        <v>2.8840766455E10</v>
+        <v>2.826713195E10</v>
       </c>
       <c r="K35" s="25" t="n">
         <v>0.0</v>
@@ -31123,7 +31123,7 @@
         <v>2.801226776E10</v>
       </c>
       <c r="AO35" s="25" t="n">
-        <v>2.8840766455E10</v>
+        <v>2.826713195E10</v>
       </c>
       <c r="AP35" s="25" t="n">
         <v>2.7227055897E10</v>
@@ -36794,7 +36794,7 @@
         <v>1.2881569E10</v>
       </c>
       <c r="I79" s="25" t="n">
-        <v>1.2882043351E10</v>
+        <v>1.3152304202E10</v>
       </c>
       <c r="K79" s="25" t="n">
         <v>1.0178396687E10</v>
@@ -36887,7 +36887,7 @@
         <v>9.665388E9</v>
       </c>
       <c r="AO79" s="25" t="n">
-        <v>1.2882043351E10</v>
+        <v>1.3152304202E10</v>
       </c>
       <c r="AP79" s="25" t="n">
         <v>9.936123202E9</v>
@@ -37056,7 +37056,7 @@
         <v>1.2881569E10</v>
       </c>
       <c r="I81" s="25" t="n">
-        <v>1.2882043351E10</v>
+        <v>1.3152304202E10</v>
       </c>
       <c r="K81" s="25" t="n">
         <v>0.0</v>
@@ -37149,7 +37149,7 @@
         <v>9.665388E9</v>
       </c>
       <c r="AO81" s="25" t="n">
-        <v>1.2882043351E10</v>
+        <v>1.3152304202E10</v>
       </c>
       <c r="AP81" s="25" t="n">
         <v>9.936123202E9</v>
@@ -38235,7 +38235,7 @@
         <v>3.0553653503E10</v>
       </c>
       <c r="I90" s="25" t="n">
-        <v>1.14740207724E11</v>
+        <v>1.14623938067E11</v>
       </c>
       <c r="K90" s="25" t="n">
         <v>7.050599065E9</v>
@@ -38328,7 +38328,7 @@
         <v>3.61617699E10</v>
       </c>
       <c r="AO90" s="25" t="n">
-        <v>1.14740207724E11</v>
+        <v>1.14623938067E11</v>
       </c>
       <c r="AP90" s="25" t="n">
         <v>1.46439529077E11</v>
@@ -38759,7 +38759,7 @@
         <v>4.64917129E9</v>
       </c>
       <c r="I94" s="25" t="n">
-        <v>3.433468021E9</v>
+        <v>3.312746301E9</v>
       </c>
       <c r="K94" s="25" t="n">
         <v>0.0</v>
@@ -38852,7 +38852,7 @@
         <v>1.922722417E9</v>
       </c>
       <c r="AO94" s="25" t="n">
-        <v>3.433468021E9</v>
+        <v>3.312746301E9</v>
       </c>
       <c r="AP94" s="25" t="n">
         <v>2.615118708E9</v>
@@ -38890,7 +38890,7 @@
         <v>7.00068554E8</v>
       </c>
       <c r="I95" s="25" t="n">
-        <v>2.051492246E9</v>
+        <v>2.055944309E9</v>
       </c>
       <c r="K95" s="25" t="n">
         <v>1.64276983E8</v>
@@ -38983,7 +38983,7 @@
         <v>0.0</v>
       </c>
       <c r="AO95" s="25" t="n">
-        <v>2.051492246E9</v>
+        <v>2.055944309E9</v>
       </c>
       <c r="AP95" s="25" t="n">
         <v>9.92364729E8</v>
@@ -39545,7 +39545,7 @@
         <v>2.285404704E9</v>
       </c>
       <c r="I100" s="25" t="n">
-        <v>1.093931143E9</v>
+        <v>1.139884955E9</v>
       </c>
       <c r="K100" s="25" t="n">
         <v>9.012099722E9</v>
@@ -39638,7 +39638,7 @@
         <v>5.380417449E9</v>
       </c>
       <c r="AO100" s="25" t="n">
-        <v>1.093931143E9</v>
+        <v>1.139884955E9</v>
       </c>
       <c r="AP100" s="25" t="n">
         <v>4.755646035E9</v>
@@ -40069,7 +40069,7 @@
         <v>2.285404704E9</v>
       </c>
       <c r="I104" s="25" t="n">
-        <v>1.093931143E9</v>
+        <v>1.139884955E9</v>
       </c>
       <c r="K104" s="25" t="n">
         <v>9.012099722E9</v>
@@ -40162,7 +40162,7 @@
         <v>5.380417449E9</v>
       </c>
       <c r="AO104" s="25" t="n">
-        <v>1.093931143E9</v>
+        <v>1.139884955E9</v>
       </c>
       <c r="AP104" s="25" t="n">
         <v>4.755646035E9</v>
@@ -41510,7 +41510,7 @@
         <v>1.7499294439E10</v>
       </c>
       <c r="I115" s="25" t="n">
-        <v>3.4478540474E10</v>
+        <v>3.4208279623E10</v>
       </c>
       <c r="K115" s="25" t="n">
         <v>1.11765820167E11</v>
@@ -41603,7 +41603,7 @@
         <v>1.1066932439E10</v>
       </c>
       <c r="AO115" s="25" t="n">
-        <v>3.4478540474E10</v>
+        <v>3.4208279623E10</v>
       </c>
       <c r="AP115" s="25" t="n">
         <v>3.6353385105E10</v>
@@ -41641,7 +41641,7 @@
         <v>1.7499294439E10</v>
       </c>
       <c r="I116" s="25" t="n">
-        <v>3.4478540474E10</v>
+        <v>3.4208279623E10</v>
       </c>
       <c r="K116" s="25" t="n">
         <v>1.11765820167E11</v>
@@ -41734,7 +41734,7 @@
         <v>1.1066932439E10</v>
       </c>
       <c r="AO116" s="25" t="n">
-        <v>3.4478540474E10</v>
+        <v>3.4208279623E10</v>
       </c>
       <c r="AP116" s="25" t="n">
         <v>3.6353385105E10</v>
@@ -42427,7 +42427,7 @@
         <v>0.0</v>
       </c>
       <c r="I122" s="25" t="n">
-        <v>4.335E10</v>
+        <v>0.0</v>
       </c>
       <c r="K122" s="25" t="n">
         <v>4.335E10</v>
@@ -42517,10 +42517,10 @@
         <v>0.0</v>
       </c>
       <c r="AN122" s="25" t="n">
-        <v>4.335E10</v>
+        <v>0.0</v>
       </c>
       <c r="AO122" s="25" t="n">
-        <v>4.335E10</v>
+        <v>0.0</v>
       </c>
       <c r="AP122" s="25" t="n">
         <v>4.335E10</v>
@@ -42558,7 +42558,7 @@
         <v>8.5E10</v>
       </c>
       <c r="I123" s="25" t="n">
-        <v>4.165E10</v>
+        <v>8.5E10</v>
       </c>
       <c r="K123" s="25" t="n">
         <v>4.165E10</v>
@@ -42648,10 +42648,10 @@
         <v>8.5E10</v>
       </c>
       <c r="AN123" s="25" t="n">
-        <v>4.165E10</v>
+        <v>8.5E10</v>
       </c>
       <c r="AO123" s="25" t="n">
-        <v>4.165E10</v>
+        <v>8.5E10</v>
       </c>
       <c r="AP123" s="25" t="n">
         <v>4.165E10</v>
@@ -42689,7 +42689,7 @@
         <v>1.282670921859E12</v>
       </c>
       <c r="I124" s="25" t="n">
-        <v>0.0</v>
+        <v>1.318138920826E12</v>
       </c>
       <c r="K124" s="25" t="n">
         <v>1.6130210194E11</v>
@@ -42951,7 +42951,7 @@
         <v>1.282670921859E12</v>
       </c>
       <c r="I126" s="25" t="n">
-        <v>0.0</v>
+        <v>1.318138920826E12</v>
       </c>
       <c r="K126" s="25" t="n">
         <v>1.6130210194E11</v>
@@ -43213,7 +43213,7 @@
         <v>1.10843576E8</v>
       </c>
       <c r="I128" s="25" t="n">
-        <v>0.0</v>
+        <v>9107583.0</v>
       </c>
       <c r="K128" s="25" t="n">
         <v>3.69939E7</v>
@@ -43475,7 +43475,7 @@
         <v>1.8519355E7</v>
       </c>
       <c r="I130" s="25" t="n">
-        <v>0.0</v>
+        <v>9107583.0</v>
       </c>
       <c r="K130" s="25" t="n">
         <v>2.12588E7</v>
@@ -43568,7 +43568,7 @@
         <v>0.0</v>
       </c>
       <c r="AO130" s="25" t="n">
-        <v>0.0</v>
+        <v>9107583.0</v>
       </c>
       <c r="AP130" s="25" t="n">
         <v>0.0</v>
@@ -43699,7 +43699,7 @@
         <v>6788037.0</v>
       </c>
       <c r="AO131" s="25" t="n">
-        <v>1860600.0</v>
+        <v>-7246983.0</v>
       </c>
       <c r="AP131" s="25" t="n">
         <v>3284506.0</v>
@@ -44130,7 +44130,7 @@
         <v>8.25408114272E11</v>
       </c>
       <c r="I135" s="25" t="n">
-        <v>0.0</v>
+        <v>8.57064079274E11</v>
       </c>
       <c r="K135" s="25" t="n">
         <v>1.06876843006E11</v>
@@ -44223,7 +44223,7 @@
         <v>2.1059471008E11</v>
       </c>
       <c r="AO135" s="25" t="n">
-        <v>2.18682936326E11</v>
+        <v>2.19256570831E11</v>
       </c>
       <c r="AP135" s="25" t="n">
         <v>2.0804851403E11</v>
@@ -44523,7 +44523,7 @@
         <v>8.25230640896E11</v>
       </c>
       <c r="I138" s="25" t="n">
-        <v>0.0</v>
+        <v>8.57064079274E11</v>
       </c>
       <c r="K138" s="25" t="n">
         <v>1.06876843006E11</v>
@@ -44616,7 +44616,7 @@
         <v>2.1059471008E11</v>
       </c>
       <c r="AO138" s="25" t="n">
-        <v>2.18682936326E11</v>
+        <v>2.19256570831E11</v>
       </c>
       <c r="AP138" s="25" t="n">
         <v>2.0804851403E11</v>
@@ -45309,7 +45309,7 @@
         <v>2.104543187E9</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>0.0</v>
+        <v>1.38383649E8</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>2.14949351E8</v>
@@ -45440,7 +45440,7 @@
         <v>2.104543187E9</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>0.0</v>
+        <v>1.38383649E8</v>
       </c>
       <c r="K145" s="25" t="n">
         <v>2.14949351E8</v>
@@ -46619,7 +46619,7 @@
         <v>3.112774657E9</v>
       </c>
       <c r="I154" s="25" t="n">
-        <v>0.0</v>
+        <v>1.629856032E9</v>
       </c>
       <c r="K154" s="25" t="n">
         <v>2.101820599E9</v>
@@ -46712,7 +46712,7 @@
         <v>3.49955443E8</v>
       </c>
       <c r="AO154" s="25" t="n">
-        <v>2.9982536E8</v>
+        <v>3.28279895E8</v>
       </c>
       <c r="AP154" s="25" t="n">
         <v>7.57700216E8</v>
@@ -46750,7 +46750,7 @@
         <v>3.112774657E9</v>
       </c>
       <c r="I155" s="25" t="n">
-        <v>0.0</v>
+        <v>1.629856032E9</v>
       </c>
       <c r="K155" s="25" t="n">
         <v>2.101820599E9</v>
@@ -46843,7 +46843,7 @@
         <v>3.49955443E8</v>
       </c>
       <c r="AO155" s="25" t="n">
-        <v>2.9982536E8</v>
+        <v>3.28279895E8</v>
       </c>
       <c r="AP155" s="25" t="n">
         <v>7.57700216E8</v>
@@ -47891,7 +47891,7 @@
         <v>3.16434973514E11</v>
       </c>
       <c r="AO163" s="25" t="n">
-        <v>3.15952966703E11</v>
+        <v>0.0</v>
       </c>
       <c r="AP163" s="25" t="n">
         <v>0.0</v>
@@ -48022,7 +48022,7 @@
         <v>2.33395399389E11</v>
       </c>
       <c r="AO164" s="25" t="n">
-        <v>2.311636251E11</v>
+        <v>0.0</v>
       </c>
       <c r="AP164" s="25" t="n">
         <v>0.0</v>
@@ -48153,7 +48153,7 @@
         <v>3.418413235E10</v>
       </c>
       <c r="AO165" s="25" t="n">
-        <v>3.8445898306E10</v>
+        <v>0.0</v>
       </c>
       <c r="AP165" s="25" t="n">
         <v>0.0</v>
@@ -48284,7 +48284,7 @@
         <v>1.7772731547E10</v>
       </c>
       <c r="AO166" s="25" t="n">
-        <v>1.8635009906E10</v>
+        <v>0.0</v>
       </c>
       <c r="AP166" s="25" t="n">
         <v>0.0</v>
@@ -48415,7 +48415,7 @@
         <v>9.943507767E9</v>
       </c>
       <c r="AO167" s="25" t="n">
-        <v>8.0724051E9</v>
+        <v>0.0</v>
       </c>
       <c r="AP167" s="25" t="n">
         <v>0.0</v>
@@ -48546,7 +48546,7 @@
         <v>2.1139202461E10</v>
       </c>
       <c r="AO168" s="25" t="n">
-        <v>1.9636028291E10</v>
+        <v>0.0</v>
       </c>
       <c r="AP168" s="25" t="n">
         <v>0.0</v>

--- a/data/TDW.xlsx
+++ b/data/TDW.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>TDW</t>

--- a/data/TDW.xlsx
+++ b/data/TDW.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>TDW</t>

--- a/data/TDW.xlsx
+++ b/data/TDW.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>TDW</t>
